--- a/4. Data/R models/Error By Country/NSEI/NSEI_DM_training.xlsx
+++ b/4. Data/R models/Error By Country/NSEI/NSEI_DM_training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\NSEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316B8D19-5F0D-4C49-9EBC-DA9AD2FA784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BADBE8-FD51-4779-827F-2F1A095C5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,8 +59,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -215,11 +215,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,6 +229,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Cor6" xfId="2" builtinId="50"/>
@@ -576,29 +576,29 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I7" s="2" t="s">
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="4">
+      <c r="K8" s="10">
         <v>0.12776484483564371</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="10">
         <v>3.0222835103016531E-9</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="10">
         <v>0.3522591079842301</v>
       </c>
     </row>
@@ -637,11 +637,11 @@
         <v>1</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4">
+      <c r="K9" s="11"/>
+      <c r="L9" s="10">
         <v>1.236623551280697E-9</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="10">
         <v>0.10456158707110361</v>
       </c>
     </row>
@@ -650,9 +650,9 @@
         <v>2</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10">
         <v>3.4884521151745669E-6</v>
       </c>
     </row>
@@ -660,10 +660,10 @@
       <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
